--- a/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
+++ b/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3409</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
+++ b/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
+++ b/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
+++ b/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.83</v>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8610</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.95</v>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.24</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3027</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1479,13 +1566,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.04</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
+++ b/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,17 +1735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.33</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1770,14 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.83</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8658</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1786,14 +1851,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.95</v>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1802,14 +1889,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.24</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
@@ -1818,13 +2027,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.04</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
+++ b/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1932,7 +1933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,17 +1944,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1963,14 +1984,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.29</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3327</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1979,14 +2022,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.33</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3327</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1995,14 +2060,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.83</v>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4353</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2011,14 +2098,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4353</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="6">
@@ -2027,14 +2236,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.24</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7">
@@ -2043,13 +2252,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.04</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
+++ b/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,319 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001481</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>37.81</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3876</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162411</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>37.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3876</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3623</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3623</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1923</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1923</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007844</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1604</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.04</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -800,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -830,32 +656,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4483</t>
+          <t>1.3327</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -868,32 +694,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4483</t>
+          <t>1.3327</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -906,32 +732,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1723</t>
+          <t>0.4353</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -944,32 +770,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1723</t>
+          <t>0.4353</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1008,7 +834,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1038,32 +864,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3409</t>
+          <t>0.8658</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1076,32 +902,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3409</t>
+          <t>0.8658</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1114,32 +940,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1349</t>
+          <t>0.2777</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1152,32 +978,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1349</t>
+          <t>0.2777</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1190,6 +1016,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8610</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3027</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1390,328 +1538,6 @@
       </c>
       <c r="H5" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001481</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>37.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8610</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162411</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>28.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6616</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3027</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1748</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1188</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1188</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007844</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.86</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0911</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +1572,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1776,32 +1602,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8658</t>
+          <t>0.3409</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1814,32 +1640,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8658</t>
+          <t>0.3409</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1852,32 +1678,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2777</t>
+          <t>0.1349</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1890,32 +1716,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2777</t>
+          <t>0.1349</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1954,7 +1780,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1984,32 +1810,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3327</t>
+          <t>0.4483</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2022,32 +1848,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3327</t>
+          <t>0.4483</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2060,32 +1886,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4353</t>
+          <t>0.1723</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2098,32 +1924,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4353</t>
+          <t>0.1723</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2141,144 +1967,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.54</v>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.29</v>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3876</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.33</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3623</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.83</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3623</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.95</v>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.24</v>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.04</v>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
+++ b/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>3.54</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.29</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.83</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.24</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.04</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>001481</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>华宝油气（QDII）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>45.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3327</t>
+          <t>1.0024</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -699,31 +716,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3327</t>
+          <t>0.8270</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4353</t>
+          <t>0.8270</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,224 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝油气（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6158</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>006680</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4353</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝油气（QDII）人民币 C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3865</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银标普全球精选自然资源等权重指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016334</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银标普全球精选自然资源等权重指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-11.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-0.8277</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -864,32 +1069,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8658</t>
+          <t>1.3327</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -902,32 +1107,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8658</t>
+          <t>1.3327</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -940,32 +1145,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2777</t>
+          <t>0.4353</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -978,32 +1183,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2777</t>
+          <t>0.4353</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1016,6 +1221,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8658</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1330,214 +1743,6 @@
       </c>
       <c r="H8" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2987</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2987</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1140</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1140</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1602,36 +1807,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3409</t>
+          <t>0.2987</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1640,36 +1845,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3409</t>
+          <t>0.2987</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1678,36 +1883,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1349</t>
+          <t>0.1140</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1716,36 +1921,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1349</t>
+          <t>0.1140</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1810,32 +2015,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4483</t>
+          <t>0.3409</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1848,32 +2053,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4483</t>
+          <t>0.3409</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1886,32 +2091,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1723</t>
+          <t>0.1349</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1924,32 +2129,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1723</t>
+          <t>0.1349</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1962,6 +2167,214 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4483</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4483</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
+++ b/数据整理/stocks/其他/MPC-马拉松石油公司.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>3.25</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>3.54</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.29</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.83</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.24</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,356 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.04</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3876</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3623</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3623</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +1022,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.98</t>
+          <t>50.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0024</t>
+          <t>1.0621</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -721,22 +1060,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8270</t>
+          <t>0.7047</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -759,22 +1098,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8270</t>
+          <t>0.7047</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -787,36 +1126,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>162411</t>
+          <t>007844</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝油气（QDII）人民币A</t>
+          <t>华宝油气（QDII）人民币 C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>27.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6158</t>
+          <t>0.5917</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +1164,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>162411</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 C</t>
+          <t>华宝油气（QDII）人民币A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>22.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4174</t>
+          <t>0.4704</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -863,32 +1202,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007844</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝油气（QDII）人民币 C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.73</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3865</t>
+          <t>0.3458</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -901,36 +1240,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000049</t>
+          <t>013404</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银标普全球精选自然资源等权重指数（QDII）A</t>
+          <t>大成标普500等权重指数（QDII）美元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.52</t>
+          <t>92.19</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -939,34 +1278,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>016334</t>
+          <t>096001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中银标普全球精选自然资源等权重指数（QDII）C</t>
+          <t>大成标普500等权重指数（QDII）人民币</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.52</t>
+          <t>92.19</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -985,22 +1326,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-11.74</t>
+          <t>-11.33</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-0.8277</t>
+          <t>-0.7047</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1018,7 +1359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,36 +1410,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>001481</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>华宝油气（QDII）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>45.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3327</t>
+          <t>1.0024</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1112,31 +1453,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3327</t>
+          <t>0.8270</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1145,36 +1486,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4353</t>
+          <t>0.8270</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1183,36 +1524,224 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝油气（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6158</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>006680</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4353</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝油气（QDII）人民币 C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3865</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银标普全球精选自然资源等权重指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016334</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银标普全球精选自然资源等权重指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-11.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-0.8277</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1277,32 +1806,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8658</t>
+          <t>1.3327</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1315,32 +1844,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8658</t>
+          <t>1.3327</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1353,32 +1882,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2777</t>
+          <t>0.4353</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1391,32 +1920,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2777</t>
+          <t>0.4353</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1429,6 +1958,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8658</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8658</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1743,214 +2480,6 @@
       </c>
       <c r="H8" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2987</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2987</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1140</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.45</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1140</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2015,36 +2544,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3409</t>
+          <t>0.2987</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2053,36 +2582,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3409</t>
+          <t>0.2987</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2091,36 +2620,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1349</t>
+          <t>0.1140</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2129,36 +2658,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1349</t>
+          <t>0.1140</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2223,32 +2752,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4483</t>
+          <t>0.3409</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2261,32 +2790,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4483</t>
+          <t>0.3409</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2299,32 +2828,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1723</t>
+          <t>0.1349</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2337,32 +2866,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1723</t>
+          <t>0.1349</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2380,159 +2909,159 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001481</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)美元</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37.81</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3876</t>
+          <t>0.4483</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162411</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)人民币A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>37.81</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3876</t>
+          <t>0.4483</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.61</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3623</t>
+          <t>0.1723</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2540,158 +3069,44 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.61</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3623</t>
+          <t>0.1723</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1923</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1923</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007844</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1604</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>